--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbb/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3893AE-B39A-414F-ADCE-90F048466FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1E54AE3-54A6-074E-9225-5EBA8F954C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="TSLA copy" sheetId="1" r:id="rId1"/>
+    <sheet name="TSLA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="987">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1272" uniqueCount="991">
   <si>
     <t>Date</t>
   </si>
@@ -2981,12 +2995,24 @@
   </si>
   <si>
     <t>694.780029</t>
+  </si>
+  <si>
+    <t>699.989990</t>
+  </si>
+  <si>
+    <t>718.719971</t>
+  </si>
+  <si>
+    <t>691.119995</t>
+  </si>
+  <si>
+    <t>705.669983</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3306,15 +3332,15 @@
   </fills>
   <borders count="10">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -3322,8 +3348,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -3331,8 +3357,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -3340,12 +3366,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FF7F7F7F"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -3355,12 +3381,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FF3F3F3F"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -3370,8 +3396,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3379,12 +3405,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <start style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
+      </start>
+      <end style="double">
         <color rgb="FF3F3F3F"/>
-      </right>
+      </end>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -3394,12 +3420,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FFB2B2B2"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -3409,8 +3435,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3526,7 +3552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3679,25 +3705,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3705,25 +3731,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3736,21 +3762,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -3764,7 +3790,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -3776,32 +3802,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3821,8 +3847,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G253"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -3854,8 +3880,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43832</v>
+      <c r="A2" s="1" t="d">
+        <v>2020-01-02</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3877,8 +3903,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43833</v>
+      <c r="A3" s="1" t="d">
+        <v>2020-01-03</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3900,8 +3926,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43836</v>
+      <c r="A4" s="1" t="d">
+        <v>2020-01-06</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3923,8 +3949,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43837</v>
+      <c r="A5" s="1" t="d">
+        <v>2020-01-07</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -3946,8 +3972,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43838</v>
+      <c r="A6" s="1" t="d">
+        <v>2020-01-08</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -3969,8 +3995,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43839</v>
+      <c r="A7" s="1" t="d">
+        <v>2020-01-09</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -3992,8 +4018,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43840</v>
+      <c r="A8" s="1" t="d">
+        <v>2020-01-10</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -4015,8 +4041,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43843</v>
+      <c r="A9" s="1" t="d">
+        <v>2020-01-13</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -4038,8 +4064,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43844</v>
+      <c r="A10" s="1" t="d">
+        <v>2020-01-14</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -4061,8 +4087,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43845</v>
+      <c r="A11" s="1" t="d">
+        <v>2020-01-15</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -4084,8 +4110,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43846</v>
+      <c r="A12" s="1" t="d">
+        <v>2020-01-16</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -4107,8 +4133,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43847</v>
+      <c r="A13" s="1" t="d">
+        <v>2020-01-17</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -4130,8 +4156,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43851</v>
+      <c r="A14" s="1" t="d">
+        <v>2020-01-21</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -4153,8 +4179,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43852</v>
+      <c r="A15" s="1" t="d">
+        <v>2020-01-22</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -4176,8 +4202,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43853</v>
+      <c r="A16" s="1" t="d">
+        <v>2020-01-23</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -4199,8 +4225,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43854</v>
+      <c r="A17" s="1" t="d">
+        <v>2020-01-24</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -4222,8 +4248,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43857</v>
+      <c r="A18" s="1" t="d">
+        <v>2020-01-27</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -4245,8 +4271,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43858</v>
+      <c r="A19" s="1" t="d">
+        <v>2020-01-28</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -4268,8 +4294,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43859</v>
+      <c r="A20" s="1" t="d">
+        <v>2020-01-29</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -4291,8 +4317,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43860</v>
+      <c r="A21" s="1" t="d">
+        <v>2020-01-30</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -4314,8 +4340,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43861</v>
+      <c r="A22" s="1" t="d">
+        <v>2020-01-31</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -4337,8 +4363,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43864</v>
+      <c r="A23" s="1" t="d">
+        <v>2020-02-03</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -4360,8 +4386,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43865</v>
+      <c r="A24" s="1" t="d">
+        <v>2020-02-04</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
@@ -4383,8 +4409,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43866</v>
+      <c r="A25" s="1" t="d">
+        <v>2020-02-05</v>
       </c>
       <c r="B25" t="s">
         <v>98</v>
@@ -4406,8 +4432,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43867</v>
+      <c r="A26" s="1" t="d">
+        <v>2020-02-06</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
@@ -4429,8 +4455,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43868</v>
+      <c r="A27" s="1" t="d">
+        <v>2020-02-07</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
@@ -4452,8 +4478,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43871</v>
+      <c r="A28" s="1" t="d">
+        <v>2020-02-10</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
@@ -4475,8 +4501,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43872</v>
+      <c r="A29" s="1" t="d">
+        <v>2020-02-11</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
@@ -4498,8 +4524,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43873</v>
+      <c r="A30" s="1" t="d">
+        <v>2020-02-12</v>
       </c>
       <c r="B30" t="s">
         <v>118</v>
@@ -4521,8 +4547,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43874</v>
+      <c r="A31" s="1" t="d">
+        <v>2020-02-13</v>
       </c>
       <c r="B31" t="s">
         <v>122</v>
@@ -4544,8 +4570,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43875</v>
+      <c r="A32" s="1" t="d">
+        <v>2020-02-14</v>
       </c>
       <c r="B32" t="s">
         <v>126</v>
@@ -4567,8 +4593,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43879</v>
+      <c r="A33" s="1" t="d">
+        <v>2020-02-18</v>
       </c>
       <c r="B33" t="s">
         <v>130</v>
@@ -4590,8 +4616,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43880</v>
+      <c r="A34" s="1" t="d">
+        <v>2020-02-19</v>
       </c>
       <c r="B34" t="s">
         <v>134</v>
@@ -4613,8 +4639,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43881</v>
+      <c r="A35" s="1" t="d">
+        <v>2020-02-20</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
@@ -4636,8 +4662,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43882</v>
+      <c r="A36" s="1" t="d">
+        <v>2020-02-21</v>
       </c>
       <c r="B36" t="s">
         <v>142</v>
@@ -4659,8 +4685,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43885</v>
+      <c r="A37" s="1" t="d">
+        <v>2020-02-24</v>
       </c>
       <c r="B37" t="s">
         <v>146</v>
@@ -4682,8 +4708,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43886</v>
+      <c r="A38" s="1" t="d">
+        <v>2020-02-25</v>
       </c>
       <c r="B38" t="s">
         <v>150</v>
@@ -4705,8 +4731,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43887</v>
+      <c r="A39" s="1" t="d">
+        <v>2020-02-26</v>
       </c>
       <c r="B39" t="s">
         <v>154</v>
@@ -4728,8 +4754,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43888</v>
+      <c r="A40" s="1" t="d">
+        <v>2020-02-27</v>
       </c>
       <c r="B40" t="s">
         <v>108</v>
@@ -4751,8 +4777,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43889</v>
+      <c r="A41" s="1" t="d">
+        <v>2020-02-28</v>
       </c>
       <c r="B41" t="s">
         <v>161</v>
@@ -4774,8 +4800,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43892</v>
+      <c r="A42" s="1" t="d">
+        <v>2020-03-02</v>
       </c>
       <c r="B42" t="s">
         <v>165</v>
@@ -4797,8 +4823,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43893</v>
+      <c r="A43" s="1" t="d">
+        <v>2020-03-03</v>
       </c>
       <c r="B43" t="s">
         <v>169</v>
@@ -4820,8 +4846,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43894</v>
+      <c r="A44" s="1" t="d">
+        <v>2020-03-04</v>
       </c>
       <c r="B44" t="s">
         <v>173</v>
@@ -4843,8 +4869,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43895</v>
+      <c r="A45" s="1" t="d">
+        <v>2020-03-05</v>
       </c>
       <c r="B45" t="s">
         <v>177</v>
@@ -4866,8 +4892,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43896</v>
+      <c r="A46" s="1" t="d">
+        <v>2020-03-06</v>
       </c>
       <c r="B46" t="s">
         <v>181</v>
@@ -4889,8 +4915,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43899</v>
+      <c r="A47" s="1" t="d">
+        <v>2020-03-09</v>
       </c>
       <c r="B47" t="s">
         <v>185</v>
@@ -4912,8 +4938,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43900</v>
+      <c r="A48" s="1" t="d">
+        <v>2020-03-10</v>
       </c>
       <c r="B48" t="s">
         <v>189</v>
@@ -4935,8 +4961,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43901</v>
+      <c r="A49" s="1" t="d">
+        <v>2020-03-11</v>
       </c>
       <c r="B49" t="s">
         <v>192</v>
@@ -4958,8 +4984,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43902</v>
+      <c r="A50" s="1" t="d">
+        <v>2020-03-12</v>
       </c>
       <c r="B50" t="s">
         <v>196</v>
@@ -4981,8 +5007,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43903</v>
+      <c r="A51" s="1" t="d">
+        <v>2020-03-13</v>
       </c>
       <c r="B51" t="s">
         <v>199</v>
@@ -5004,8 +5030,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43906</v>
+      <c r="A52" s="1" t="d">
+        <v>2020-03-16</v>
       </c>
       <c r="B52" t="s">
         <v>203</v>
@@ -5027,8 +5053,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43907</v>
+      <c r="A53" s="1" t="d">
+        <v>2020-03-17</v>
       </c>
       <c r="B53" t="s">
         <v>207</v>
@@ -5050,8 +5076,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43908</v>
+      <c r="A54" s="1" t="d">
+        <v>2020-03-18</v>
       </c>
       <c r="B54" t="s">
         <v>211</v>
@@ -5073,8 +5099,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43909</v>
+      <c r="A55" s="1" t="d">
+        <v>2020-03-19</v>
       </c>
       <c r="B55" t="s">
         <v>215</v>
@@ -5096,8 +5122,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43910</v>
+      <c r="A56" s="1" t="d">
+        <v>2020-03-20</v>
       </c>
       <c r="B56" t="s">
         <v>219</v>
@@ -5119,8 +5145,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43913</v>
+      <c r="A57" s="1" t="d">
+        <v>2020-03-23</v>
       </c>
       <c r="B57" t="s">
         <v>223</v>
@@ -5142,8 +5168,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43914</v>
+      <c r="A58" s="1" t="d">
+        <v>2020-03-24</v>
       </c>
       <c r="B58" t="s">
         <v>227</v>
@@ -5165,8 +5191,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>43915</v>
+      <c r="A59" s="1" t="d">
+        <v>2020-03-25</v>
       </c>
       <c r="B59" t="s">
         <v>231</v>
@@ -5188,8 +5214,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43916</v>
+      <c r="A60" s="1" t="d">
+        <v>2020-03-26</v>
       </c>
       <c r="B60" t="s">
         <v>235</v>
@@ -5211,8 +5237,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>43917</v>
+      <c r="A61" s="1" t="d">
+        <v>2020-03-27</v>
       </c>
       <c r="B61" t="s">
         <v>230</v>
@@ -5234,8 +5260,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43920</v>
+      <c r="A62" s="1" t="d">
+        <v>2020-03-30</v>
       </c>
       <c r="B62" t="s">
         <v>242</v>
@@ -5257,8 +5283,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>43921</v>
+      <c r="A63" s="1" t="d">
+        <v>2020-03-31</v>
       </c>
       <c r="B63" t="s">
         <v>246</v>
@@ -5280,8 +5306,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43922</v>
+      <c r="A64" s="1" t="d">
+        <v>2020-04-01</v>
       </c>
       <c r="B64" t="s">
         <v>250</v>
@@ -5303,8 +5329,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>43923</v>
+      <c r="A65" s="1" t="d">
+        <v>2020-04-02</v>
       </c>
       <c r="B65" t="s">
         <v>254</v>
@@ -5326,8 +5352,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43924</v>
+      <c r="A66" s="1" t="d">
+        <v>2020-04-03</v>
       </c>
       <c r="B66" t="s">
         <v>258</v>
@@ -5349,8 +5375,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>43927</v>
+      <c r="A67" s="1" t="d">
+        <v>2020-04-06</v>
       </c>
       <c r="B67" t="s">
         <v>262</v>
@@ -5372,8 +5398,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43928</v>
+      <c r="A68" s="1" t="d">
+        <v>2020-04-07</v>
       </c>
       <c r="B68" t="s">
         <v>266</v>
@@ -5395,8 +5421,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>43929</v>
+      <c r="A69" s="1" t="d">
+        <v>2020-04-08</v>
       </c>
       <c r="B69" t="s">
         <v>270</v>
@@ -5418,8 +5444,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43930</v>
+      <c r="A70" s="1" t="d">
+        <v>2020-04-09</v>
       </c>
       <c r="B70" t="s">
         <v>274</v>
@@ -5441,8 +5467,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>43934</v>
+      <c r="A71" s="1" t="d">
+        <v>2020-04-13</v>
       </c>
       <c r="B71" t="s">
         <v>278</v>
@@ -5464,8 +5490,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>43935</v>
+      <c r="A72" s="1" t="d">
+        <v>2020-04-14</v>
       </c>
       <c r="B72" t="s">
         <v>282</v>
@@ -5487,8 +5513,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>43936</v>
+      <c r="A73" s="1" t="d">
+        <v>2020-04-15</v>
       </c>
       <c r="B73" t="s">
         <v>286</v>
@@ -5510,8 +5536,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>43937</v>
+      <c r="A74" s="1" t="d">
+        <v>2020-04-16</v>
       </c>
       <c r="B74" t="s">
         <v>290</v>
@@ -5533,8 +5559,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>43938</v>
+      <c r="A75" s="1" t="d">
+        <v>2020-04-17</v>
       </c>
       <c r="B75" t="s">
         <v>294</v>
@@ -5556,8 +5582,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43941</v>
+      <c r="A76" s="1" t="d">
+        <v>2020-04-20</v>
       </c>
       <c r="B76" t="s">
         <v>298</v>
@@ -5579,8 +5605,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>43942</v>
+      <c r="A77" s="1" t="d">
+        <v>2020-04-21</v>
       </c>
       <c r="B77" t="s">
         <v>302</v>
@@ -5602,8 +5628,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43943</v>
+      <c r="A78" s="1" t="d">
+        <v>2020-04-22</v>
       </c>
       <c r="B78" t="s">
         <v>306</v>
@@ -5625,8 +5651,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>43944</v>
+      <c r="A79" s="1" t="d">
+        <v>2020-04-23</v>
       </c>
       <c r="B79" t="s">
         <v>310</v>
@@ -5648,8 +5674,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43945</v>
+      <c r="A80" s="1" t="d">
+        <v>2020-04-24</v>
       </c>
       <c r="B80" t="s">
         <v>313</v>
@@ -5671,8 +5697,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>43948</v>
+      <c r="A81" s="1" t="d">
+        <v>2020-04-27</v>
       </c>
       <c r="B81" t="s">
         <v>317</v>
@@ -5694,8 +5720,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>43949</v>
+      <c r="A82" s="1" t="d">
+        <v>2020-04-28</v>
       </c>
       <c r="B82" t="s">
         <v>320</v>
@@ -5717,8 +5743,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>43950</v>
+      <c r="A83" s="1" t="d">
+        <v>2020-04-29</v>
       </c>
       <c r="B83" t="s">
         <v>323</v>
@@ -5740,8 +5766,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>43951</v>
+      <c r="A84" s="1" t="d">
+        <v>2020-04-30</v>
       </c>
       <c r="B84" t="s">
         <v>327</v>
@@ -5763,8 +5789,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>43952</v>
+      <c r="A85" s="1" t="d">
+        <v>2020-05-01</v>
       </c>
       <c r="B85" t="s">
         <v>331</v>
@@ -5786,8 +5812,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>43955</v>
+      <c r="A86" s="1" t="d">
+        <v>2020-05-04</v>
       </c>
       <c r="B86" t="s">
         <v>335</v>
@@ -5809,8 +5835,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>43956</v>
+      <c r="A87" s="1" t="d">
+        <v>2020-05-05</v>
       </c>
       <c r="B87" t="s">
         <v>339</v>
@@ -5832,8 +5858,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>43957</v>
+      <c r="A88" s="1" t="d">
+        <v>2020-05-06</v>
       </c>
       <c r="B88" t="s">
         <v>343</v>
@@ -5855,8 +5881,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>43958</v>
+      <c r="A89" s="1" t="d">
+        <v>2020-05-07</v>
       </c>
       <c r="B89" t="s">
         <v>347</v>
@@ -5878,8 +5904,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>43959</v>
+      <c r="A90" s="1" t="d">
+        <v>2020-05-08</v>
       </c>
       <c r="B90" t="s">
         <v>351</v>
@@ -5901,8 +5927,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>43962</v>
+      <c r="A91" s="1" t="d">
+        <v>2020-05-11</v>
       </c>
       <c r="B91" t="s">
         <v>355</v>
@@ -5924,8 +5950,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>43963</v>
+      <c r="A92" s="1" t="d">
+        <v>2020-05-12</v>
       </c>
       <c r="B92" t="s">
         <v>358</v>
@@ -5947,8 +5973,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43964</v>
+      <c r="A93" s="1" t="d">
+        <v>2020-05-13</v>
       </c>
       <c r="B93" t="s">
         <v>362</v>
@@ -5970,8 +5996,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>43965</v>
+      <c r="A94" s="1" t="d">
+        <v>2020-05-14</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
@@ -5993,8 +6019,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>43966</v>
+      <c r="A95" s="1" t="d">
+        <v>2020-05-15</v>
       </c>
       <c r="B95" t="s">
         <v>369</v>
@@ -6016,8 +6042,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43969</v>
+      <c r="A96" s="1" t="d">
+        <v>2020-05-18</v>
       </c>
       <c r="B96" t="s">
         <v>373</v>
@@ -6039,8 +6065,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>43970</v>
+      <c r="A97" s="1" t="d">
+        <v>2020-05-19</v>
       </c>
       <c r="B97" t="s">
         <v>377</v>
@@ -6062,8 +6088,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43971</v>
+      <c r="A98" s="1" t="d">
+        <v>2020-05-20</v>
       </c>
       <c r="B98" t="s">
         <v>381</v>
@@ -6085,8 +6111,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>43972</v>
+      <c r="A99" s="1" t="d">
+        <v>2020-05-21</v>
       </c>
       <c r="B99" t="s">
         <v>384</v>
@@ -6108,8 +6134,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>43973</v>
+      <c r="A100" s="1" t="d">
+        <v>2020-05-22</v>
       </c>
       <c r="B100" t="s">
         <v>388</v>
@@ -6131,8 +6157,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>43977</v>
+      <c r="A101" s="1" t="d">
+        <v>2020-05-26</v>
       </c>
       <c r="B101" t="s">
         <v>392</v>
@@ -6154,8 +6180,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>43978</v>
+      <c r="A102" s="1" t="d">
+        <v>2020-05-27</v>
       </c>
       <c r="B102" t="s">
         <v>396</v>
@@ -6177,8 +6203,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>43979</v>
+      <c r="A103" s="1" t="d">
+        <v>2020-05-28</v>
       </c>
       <c r="B103" t="s">
         <v>399</v>
@@ -6200,8 +6226,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>43980</v>
+      <c r="A104" s="1" t="d">
+        <v>2020-05-29</v>
       </c>
       <c r="B104" t="s">
         <v>403</v>
@@ -6223,8 +6249,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>43983</v>
+      <c r="A105" s="1" t="d">
+        <v>2020-06-01</v>
       </c>
       <c r="B105" t="s">
         <v>406</v>
@@ -6246,8 +6272,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>43984</v>
+      <c r="A106" s="1" t="d">
+        <v>2020-06-02</v>
       </c>
       <c r="B106" t="s">
         <v>410</v>
@@ -6269,8 +6295,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>43985</v>
+      <c r="A107" s="1" t="d">
+        <v>2020-06-03</v>
       </c>
       <c r="B107" t="s">
         <v>414</v>
@@ -6292,8 +6318,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>43986</v>
+      <c r="A108" s="1" t="d">
+        <v>2020-06-04</v>
       </c>
       <c r="B108" t="s">
         <v>417</v>
@@ -6315,8 +6341,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>43987</v>
+      <c r="A109" s="1" t="d">
+        <v>2020-06-05</v>
       </c>
       <c r="B109" t="s">
         <v>421</v>
@@ -6338,8 +6364,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>43990</v>
+      <c r="A110" s="1" t="d">
+        <v>2020-06-08</v>
       </c>
       <c r="B110" t="s">
         <v>425</v>
@@ -6361,8 +6387,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>43991</v>
+      <c r="A111" s="1" t="d">
+        <v>2020-06-09</v>
       </c>
       <c r="B111" t="s">
         <v>429</v>
@@ -6384,8 +6410,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>43992</v>
+      <c r="A112" s="1" t="d">
+        <v>2020-06-10</v>
       </c>
       <c r="B112" t="s">
         <v>433</v>
@@ -6407,8 +6433,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>43993</v>
+      <c r="A113" s="1" t="d">
+        <v>2020-06-11</v>
       </c>
       <c r="B113" t="s">
         <v>437</v>
@@ -6430,8 +6456,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>43994</v>
+      <c r="A114" s="1" t="d">
+        <v>2020-06-12</v>
       </c>
       <c r="B114" t="s">
         <v>441</v>
@@ -6453,8 +6479,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>43997</v>
+      <c r="A115" s="1" t="d">
+        <v>2020-06-15</v>
       </c>
       <c r="B115" t="s">
         <v>445</v>
@@ -6476,8 +6502,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>43998</v>
+      <c r="A116" s="1" t="d">
+        <v>2020-06-16</v>
       </c>
       <c r="B116" t="s">
         <v>449</v>
@@ -6499,8 +6525,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>43999</v>
+      <c r="A117" s="1" t="d">
+        <v>2020-06-17</v>
       </c>
       <c r="B117" t="s">
         <v>453</v>
@@ -6522,8 +6548,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>44000</v>
+      <c r="A118" s="1" t="d">
+        <v>2020-06-18</v>
       </c>
       <c r="B118" t="s">
         <v>457</v>
@@ -6545,8 +6571,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>44001</v>
+      <c r="A119" s="1" t="d">
+        <v>2020-06-19</v>
       </c>
       <c r="B119" t="s">
         <v>461</v>
@@ -6568,8 +6594,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>44004</v>
+      <c r="A120" s="1" t="d">
+        <v>2020-06-22</v>
       </c>
       <c r="B120" t="s">
         <v>465</v>
@@ -6591,8 +6617,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>44005</v>
+      <c r="A121" s="1" t="d">
+        <v>2020-06-23</v>
       </c>
       <c r="B121" t="s">
         <v>469</v>
@@ -6614,8 +6640,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>44006</v>
+      <c r="A122" s="1" t="d">
+        <v>2020-06-24</v>
       </c>
       <c r="B122" t="s">
         <v>473</v>
@@ -6637,8 +6663,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>44007</v>
+      <c r="A123" s="1" t="d">
+        <v>2020-06-25</v>
       </c>
       <c r="B123" t="s">
         <v>477</v>
@@ -6660,8 +6686,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>44008</v>
+      <c r="A124" s="1" t="d">
+        <v>2020-06-26</v>
       </c>
       <c r="B124" t="s">
         <v>480</v>
@@ -6683,8 +6709,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>44011</v>
+      <c r="A125" s="1" t="d">
+        <v>2020-06-29</v>
       </c>
       <c r="B125" t="s">
         <v>484</v>
@@ -6706,8 +6732,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>44012</v>
+      <c r="A126" s="1" t="d">
+        <v>2020-06-30</v>
       </c>
       <c r="B126" t="s">
         <v>488</v>
@@ -6729,8 +6755,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>44013</v>
+      <c r="A127" s="1" t="d">
+        <v>2020-07-01</v>
       </c>
       <c r="B127" t="s">
         <v>492</v>
@@ -6752,8 +6778,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>44014</v>
+      <c r="A128" s="1" t="d">
+        <v>2020-07-02</v>
       </c>
       <c r="B128" t="s">
         <v>496</v>
@@ -6775,8 +6801,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>44018</v>
+      <c r="A129" s="1" t="d">
+        <v>2020-07-06</v>
       </c>
       <c r="B129" t="s">
         <v>500</v>
@@ -6798,8 +6824,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>44019</v>
+      <c r="A130" s="1" t="d">
+        <v>2020-07-07</v>
       </c>
       <c r="B130" t="s">
         <v>504</v>
@@ -6821,8 +6847,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>44020</v>
+      <c r="A131" s="1" t="d">
+        <v>2020-07-08</v>
       </c>
       <c r="B131" t="s">
         <v>508</v>
@@ -6844,8 +6870,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>44021</v>
+      <c r="A132" s="1" t="d">
+        <v>2020-07-09</v>
       </c>
       <c r="B132" t="s">
         <v>512</v>
@@ -6867,8 +6893,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>44022</v>
+      <c r="A133" s="1" t="d">
+        <v>2020-07-10</v>
       </c>
       <c r="B133" t="s">
         <v>516</v>
@@ -6890,8 +6916,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>44025</v>
+      <c r="A134" s="1" t="d">
+        <v>2020-07-13</v>
       </c>
       <c r="B134" t="s">
         <v>520</v>
@@ -6913,8 +6939,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>44026</v>
+      <c r="A135" s="1" t="d">
+        <v>2020-07-14</v>
       </c>
       <c r="B135" t="s">
         <v>524</v>
@@ -6936,8 +6962,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>44027</v>
+      <c r="A136" s="1" t="d">
+        <v>2020-07-15</v>
       </c>
       <c r="B136" t="s">
         <v>528</v>
@@ -6959,8 +6985,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>44028</v>
+      <c r="A137" s="1" t="d">
+        <v>2020-07-16</v>
       </c>
       <c r="B137" t="s">
         <v>532</v>
@@ -6982,8 +7008,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>44029</v>
+      <c r="A138" s="1" t="d">
+        <v>2020-07-17</v>
       </c>
       <c r="B138" t="s">
         <v>536</v>
@@ -7005,8 +7031,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>44032</v>
+      <c r="A139" s="1" t="d">
+        <v>2020-07-20</v>
       </c>
       <c r="B139" t="s">
         <v>540</v>
@@ -7028,8 +7054,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>44033</v>
+      <c r="A140" s="1" t="d">
+        <v>2020-07-21</v>
       </c>
       <c r="B140" t="s">
         <v>544</v>
@@ -7051,8 +7077,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>44034</v>
+      <c r="A141" s="1" t="d">
+        <v>2020-07-22</v>
       </c>
       <c r="B141" t="s">
         <v>548</v>
@@ -7074,8 +7100,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>44035</v>
+      <c r="A142" s="1" t="d">
+        <v>2020-07-23</v>
       </c>
       <c r="B142" t="s">
         <v>552</v>
@@ -7097,8 +7123,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>44036</v>
+      <c r="A143" s="1" t="d">
+        <v>2020-07-24</v>
       </c>
       <c r="B143" t="s">
         <v>556</v>
@@ -7120,8 +7146,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>44039</v>
+      <c r="A144" s="1" t="d">
+        <v>2020-07-27</v>
       </c>
       <c r="B144" t="s">
         <v>560</v>
@@ -7143,8 +7169,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>44040</v>
+      <c r="A145" s="1" t="d">
+        <v>2020-07-28</v>
       </c>
       <c r="B145" t="s">
         <v>564</v>
@@ -7166,8 +7192,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>44041</v>
+      <c r="A146" s="1" t="d">
+        <v>2020-07-29</v>
       </c>
       <c r="B146" t="s">
         <v>568</v>
@@ -7189,8 +7215,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>44042</v>
+      <c r="A147" s="1" t="d">
+        <v>2020-07-30</v>
       </c>
       <c r="B147" t="s">
         <v>542</v>
@@ -7212,8 +7238,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>44043</v>
+      <c r="A148" s="1" t="d">
+        <v>2020-07-31</v>
       </c>
       <c r="B148" t="s">
         <v>575</v>
@@ -7235,8 +7261,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>44046</v>
+      <c r="A149" s="1" t="d">
+        <v>2020-08-03</v>
       </c>
       <c r="B149" t="s">
         <v>579</v>
@@ -7258,8 +7284,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>44047</v>
+      <c r="A150" s="1" t="d">
+        <v>2020-08-04</v>
       </c>
       <c r="B150" t="s">
         <v>583</v>
@@ -7281,8 +7307,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>44048</v>
+      <c r="A151" s="1" t="d">
+        <v>2020-08-05</v>
       </c>
       <c r="B151" t="s">
         <v>586</v>
@@ -7304,8 +7330,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>44049</v>
+      <c r="A152" s="1" t="d">
+        <v>2020-08-06</v>
       </c>
       <c r="B152" t="s">
         <v>590</v>
@@ -7327,8 +7353,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>44050</v>
+      <c r="A153" s="1" t="d">
+        <v>2020-08-07</v>
       </c>
       <c r="B153" t="s">
         <v>594</v>
@@ -7350,8 +7376,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>44053</v>
+      <c r="A154" s="1" t="d">
+        <v>2020-08-10</v>
       </c>
       <c r="B154" t="s">
         <v>598</v>
@@ -7373,8 +7399,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>44054</v>
+      <c r="A155" s="1" t="d">
+        <v>2020-08-11</v>
       </c>
       <c r="B155" t="s">
         <v>516</v>
@@ -7396,8 +7422,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>44055</v>
+      <c r="A156" s="1" t="d">
+        <v>2020-08-12</v>
       </c>
       <c r="B156" t="s">
         <v>605</v>
@@ -7419,8 +7445,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>44056</v>
+      <c r="A157" s="1" t="d">
+        <v>2020-08-13</v>
       </c>
       <c r="B157" t="s">
         <v>608</v>
@@ -7442,8 +7468,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>44057</v>
+      <c r="A158" s="1" t="d">
+        <v>2020-08-14</v>
       </c>
       <c r="B158" t="s">
         <v>612</v>
@@ -7465,8 +7491,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>44060</v>
+      <c r="A159" s="1" t="d">
+        <v>2020-08-17</v>
       </c>
       <c r="B159" t="s">
         <v>616</v>
@@ -7488,8 +7514,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>44061</v>
+      <c r="A160" s="1" t="d">
+        <v>2020-08-18</v>
       </c>
       <c r="B160" t="s">
         <v>620</v>
@@ -7511,8 +7537,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>44062</v>
+      <c r="A161" s="1" t="d">
+        <v>2020-08-19</v>
       </c>
       <c r="B161" t="s">
         <v>624</v>
@@ -7534,8 +7560,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>44063</v>
+      <c r="A162" s="1" t="d">
+        <v>2020-08-20</v>
       </c>
       <c r="B162" t="s">
         <v>628</v>
@@ -7557,8 +7583,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>44064</v>
+      <c r="A163" s="1" t="d">
+        <v>2020-08-21</v>
       </c>
       <c r="B163" t="s">
         <v>632</v>
@@ -7580,8 +7606,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>44067</v>
+      <c r="A164" s="1" t="d">
+        <v>2020-08-24</v>
       </c>
       <c r="B164" t="s">
         <v>636</v>
@@ -7603,8 +7629,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>44068</v>
+      <c r="A165" s="1" t="d">
+        <v>2020-08-25</v>
       </c>
       <c r="B165" t="s">
         <v>640</v>
@@ -7626,8 +7652,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>44069</v>
+      <c r="A166" s="1" t="d">
+        <v>2020-08-26</v>
       </c>
       <c r="B166" t="s">
         <v>644</v>
@@ -7649,8 +7675,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>44070</v>
+      <c r="A167" s="1" t="d">
+        <v>2020-08-27</v>
       </c>
       <c r="B167" t="s">
         <v>648</v>
@@ -7672,8 +7698,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>44071</v>
+      <c r="A168" s="1" t="d">
+        <v>2020-08-28</v>
       </c>
       <c r="B168" t="s">
         <v>652</v>
@@ -7695,8 +7721,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>44074</v>
+      <c r="A169" s="1" t="d">
+        <v>2020-08-31</v>
       </c>
       <c r="B169" t="s">
         <v>656</v>
@@ -7718,8 +7744,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>44075</v>
+      <c r="A170" s="1" t="d">
+        <v>2020-09-01</v>
       </c>
       <c r="B170" t="s">
         <v>660</v>
@@ -7741,8 +7767,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>44076</v>
+      <c r="A171" s="1" t="d">
+        <v>2020-09-02</v>
       </c>
       <c r="B171" t="s">
         <v>664</v>
@@ -7764,8 +7790,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>44077</v>
+      <c r="A172" s="1" t="d">
+        <v>2020-09-03</v>
       </c>
       <c r="B172" t="s">
         <v>668</v>
@@ -7787,8 +7813,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>44078</v>
+      <c r="A173" s="1" t="d">
+        <v>2020-09-04</v>
       </c>
       <c r="B173" t="s">
         <v>672</v>
@@ -7810,8 +7836,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>44082</v>
+      <c r="A174" s="1" t="d">
+        <v>2020-09-08</v>
       </c>
       <c r="B174" t="s">
         <v>676</v>
@@ -7833,8 +7859,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>44083</v>
+      <c r="A175" s="1" t="d">
+        <v>2020-09-09</v>
       </c>
       <c r="B175" t="s">
         <v>680</v>
@@ -7856,8 +7882,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>44084</v>
+      <c r="A176" s="1" t="d">
+        <v>2020-09-10</v>
       </c>
       <c r="B176" t="s">
         <v>684</v>
@@ -7879,8 +7905,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>44085</v>
+      <c r="A177" s="1" t="d">
+        <v>2020-09-11</v>
       </c>
       <c r="B177" t="s">
         <v>688</v>
@@ -7902,8 +7928,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>44088</v>
+      <c r="A178" s="1" t="d">
+        <v>2020-09-14</v>
       </c>
       <c r="B178" t="s">
         <v>692</v>
@@ -7925,8 +7951,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>44089</v>
+      <c r="A179" s="1" t="d">
+        <v>2020-09-15</v>
       </c>
       <c r="B179" t="s">
         <v>696</v>
@@ -7948,8 +7974,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>44090</v>
+      <c r="A180" s="1" t="d">
+        <v>2020-09-16</v>
       </c>
       <c r="B180" t="s">
         <v>700</v>
@@ -7971,8 +7997,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>44091</v>
+      <c r="A181" s="1" t="d">
+        <v>2020-09-17</v>
       </c>
       <c r="B181" t="s">
         <v>704</v>
@@ -7994,8 +8020,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>44092</v>
+      <c r="A182" s="1" t="d">
+        <v>2020-09-18</v>
       </c>
       <c r="B182" t="s">
         <v>708</v>
@@ -8017,8 +8043,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>44095</v>
+      <c r="A183" s="1" t="d">
+        <v>2020-09-21</v>
       </c>
       <c r="B183" t="s">
         <v>712</v>
@@ -8040,8 +8066,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>44096</v>
+      <c r="A184" s="1" t="d">
+        <v>2020-09-22</v>
       </c>
       <c r="B184" t="s">
         <v>716</v>
@@ -8063,8 +8089,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>44097</v>
+      <c r="A185" s="1" t="d">
+        <v>2020-09-23</v>
       </c>
       <c r="B185" t="s">
         <v>720</v>
@@ -8086,8 +8112,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>44098</v>
+      <c r="A186" s="1" t="d">
+        <v>2020-09-24</v>
       </c>
       <c r="B186" t="s">
         <v>724</v>
@@ -8109,8 +8135,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>44099</v>
+      <c r="A187" s="1" t="d">
+        <v>2020-09-25</v>
       </c>
       <c r="B187" t="s">
         <v>728</v>
@@ -8132,8 +8158,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>44102</v>
+      <c r="A188" s="1" t="d">
+        <v>2020-09-28</v>
       </c>
       <c r="B188" t="s">
         <v>732</v>
@@ -8155,8 +8181,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>44103</v>
+      <c r="A189" s="1" t="d">
+        <v>2020-09-29</v>
       </c>
       <c r="B189" t="s">
         <v>736</v>
@@ -8178,8 +8204,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>44104</v>
+      <c r="A190" s="1" t="d">
+        <v>2020-09-30</v>
       </c>
       <c r="B190" t="s">
         <v>739</v>
@@ -8201,8 +8227,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>44105</v>
+      <c r="A191" s="1" t="d">
+        <v>2020-10-01</v>
       </c>
       <c r="B191" t="s">
         <v>743</v>
@@ -8224,8 +8250,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>44106</v>
+      <c r="A192" s="1" t="d">
+        <v>2020-10-02</v>
       </c>
       <c r="B192" t="s">
         <v>747</v>
@@ -8247,8 +8273,8 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>44109</v>
+      <c r="A193" s="1" t="d">
+        <v>2020-10-05</v>
       </c>
       <c r="B193" t="s">
         <v>751</v>
@@ -8270,8 +8296,8 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>44110</v>
+      <c r="A194" s="1" t="d">
+        <v>2020-10-06</v>
       </c>
       <c r="B194" t="s">
         <v>755</v>
@@ -8293,8 +8319,8 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>44111</v>
+      <c r="A195" s="1" t="d">
+        <v>2020-10-07</v>
       </c>
       <c r="B195" t="s">
         <v>759</v>
@@ -8316,8 +8342,8 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>44112</v>
+      <c r="A196" s="1" t="d">
+        <v>2020-10-08</v>
       </c>
       <c r="B196" t="s">
         <v>763</v>
@@ -8339,8 +8365,8 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>44113</v>
+      <c r="A197" s="1" t="d">
+        <v>2020-10-09</v>
       </c>
       <c r="B197" t="s">
         <v>766</v>
@@ -8362,8 +8388,8 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>44116</v>
+      <c r="A198" s="1" t="d">
+        <v>2020-10-12</v>
       </c>
       <c r="B198" t="s">
         <v>770</v>
@@ -8385,8 +8411,8 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>44117</v>
+      <c r="A199" s="1" t="d">
+        <v>2020-10-13</v>
       </c>
       <c r="B199" t="s">
         <v>774</v>
@@ -8408,8 +8434,8 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>44118</v>
+      <c r="A200" s="1" t="d">
+        <v>2020-10-14</v>
       </c>
       <c r="B200" t="s">
         <v>778</v>
@@ -8431,8 +8457,8 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>44119</v>
+      <c r="A201" s="1" t="d">
+        <v>2020-10-15</v>
       </c>
       <c r="B201" t="s">
         <v>782</v>
@@ -8454,8 +8480,8 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>44120</v>
+      <c r="A202" s="1" t="d">
+        <v>2020-10-16</v>
       </c>
       <c r="B202" t="s">
         <v>785</v>
@@ -8477,8 +8503,8 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>44123</v>
+      <c r="A203" s="1" t="d">
+        <v>2020-10-19</v>
       </c>
       <c r="B203" t="s">
         <v>789</v>
@@ -8500,8 +8526,8 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>44124</v>
+      <c r="A204" s="1" t="d">
+        <v>2020-10-20</v>
       </c>
       <c r="B204" t="s">
         <v>793</v>
@@ -8523,8 +8549,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>44125</v>
+      <c r="A205" s="1" t="d">
+        <v>2020-10-21</v>
       </c>
       <c r="B205" t="s">
         <v>796</v>
@@ -8546,8 +8572,8 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>44126</v>
+      <c r="A206" s="1" t="d">
+        <v>2020-10-22</v>
       </c>
       <c r="B206" t="s">
         <v>800</v>
@@ -8569,8 +8595,8 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>44127</v>
+      <c r="A207" s="1" t="d">
+        <v>2020-10-23</v>
       </c>
       <c r="B207" t="s">
         <v>804</v>
@@ -8592,8 +8618,8 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>44130</v>
+      <c r="A208" s="1" t="d">
+        <v>2020-10-26</v>
       </c>
       <c r="B208" t="s">
         <v>808</v>
@@ -8615,8 +8641,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>44131</v>
+      <c r="A209" s="1" t="d">
+        <v>2020-10-27</v>
       </c>
       <c r="B209" t="s">
         <v>812</v>
@@ -8638,8 +8664,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>44132</v>
+      <c r="A210" s="1" t="d">
+        <v>2020-10-28</v>
       </c>
       <c r="B210" t="s">
         <v>816</v>
@@ -8661,8 +8687,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>44133</v>
+      <c r="A211" s="1" t="d">
+        <v>2020-10-29</v>
       </c>
       <c r="B211" t="s">
         <v>820</v>
@@ -8684,8 +8710,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>44134</v>
+      <c r="A212" s="1" t="d">
+        <v>2020-10-30</v>
       </c>
       <c r="B212" t="s">
         <v>824</v>
@@ -8707,8 +8733,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>44137</v>
+      <c r="A213" s="1" t="d">
+        <v>2020-11-02</v>
       </c>
       <c r="B213" t="s">
         <v>828</v>
@@ -8730,8 +8756,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>44138</v>
+      <c r="A214" s="1" t="d">
+        <v>2020-11-03</v>
       </c>
       <c r="B214" t="s">
         <v>832</v>
@@ -8753,8 +8779,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>44139</v>
+      <c r="A215" s="1" t="d">
+        <v>2020-11-04</v>
       </c>
       <c r="B215" t="s">
         <v>836</v>
@@ -8776,8 +8802,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>44140</v>
+      <c r="A216" s="1" t="d">
+        <v>2020-11-05</v>
       </c>
       <c r="B216" t="s">
         <v>840</v>
@@ -8799,8 +8825,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>44141</v>
+      <c r="A217" s="1" t="d">
+        <v>2020-11-06</v>
       </c>
       <c r="B217" t="s">
         <v>844</v>
@@ -8822,8 +8848,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>44144</v>
+      <c r="A218" s="1" t="d">
+        <v>2020-11-09</v>
       </c>
       <c r="B218" t="s">
         <v>848</v>
@@ -8845,8 +8871,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>44145</v>
+      <c r="A219" s="1" t="d">
+        <v>2020-11-10</v>
       </c>
       <c r="B219" t="s">
         <v>852</v>
@@ -8868,8 +8894,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>44146</v>
+      <c r="A220" s="1" t="d">
+        <v>2020-11-11</v>
       </c>
       <c r="B220" t="s">
         <v>855</v>
@@ -8891,8 +8917,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>44147</v>
+      <c r="A221" s="1" t="d">
+        <v>2020-11-12</v>
       </c>
       <c r="B221" t="s">
         <v>859</v>
@@ -8914,8 +8940,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>44148</v>
+      <c r="A222" s="1" t="d">
+        <v>2020-11-13</v>
       </c>
       <c r="B222" t="s">
         <v>863</v>
@@ -8937,8 +8963,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>44151</v>
+      <c r="A223" s="1" t="d">
+        <v>2020-11-16</v>
       </c>
       <c r="B223" t="s">
         <v>867</v>
@@ -8960,8 +8986,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
-        <v>44152</v>
+      <c r="A224" s="1" t="d">
+        <v>2020-11-17</v>
       </c>
       <c r="B224" t="s">
         <v>871</v>
@@ -8983,8 +9009,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>44153</v>
+      <c r="A225" s="1" t="d">
+        <v>2020-11-18</v>
       </c>
       <c r="B225" t="s">
         <v>875</v>
@@ -9006,8 +9032,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>44154</v>
+      <c r="A226" s="1" t="d">
+        <v>2020-11-19</v>
       </c>
       <c r="B226" t="s">
         <v>879</v>
@@ -9029,8 +9055,8 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>44155</v>
+      <c r="A227" s="1" t="d">
+        <v>2020-11-20</v>
       </c>
       <c r="B227" t="s">
         <v>883</v>
@@ -9052,8 +9078,8 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
-        <v>44158</v>
+      <c r="A228" s="1" t="d">
+        <v>2020-11-23</v>
       </c>
       <c r="B228" t="s">
         <v>887</v>
@@ -9075,8 +9101,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>44159</v>
+      <c r="A229" s="1" t="d">
+        <v>2020-11-24</v>
       </c>
       <c r="B229" t="s">
         <v>891</v>
@@ -9098,8 +9124,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>44160</v>
+      <c r="A230" s="1" t="d">
+        <v>2020-11-25</v>
       </c>
       <c r="B230" t="s">
         <v>895</v>
@@ -9121,8 +9147,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>44162</v>
+      <c r="A231" s="1" t="d">
+        <v>2020-11-27</v>
       </c>
       <c r="B231" t="s">
         <v>898</v>
@@ -9144,8 +9170,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
-        <v>44165</v>
+      <c r="A232" s="1" t="d">
+        <v>2020-11-30</v>
       </c>
       <c r="B232" t="s">
         <v>902</v>
@@ -9167,8 +9193,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
-        <v>44166</v>
+      <c r="A233" s="1" t="d">
+        <v>2020-12-01</v>
       </c>
       <c r="B233" t="s">
         <v>906</v>
@@ -9190,8 +9216,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>44167</v>
+      <c r="A234" s="1" t="d">
+        <v>2020-12-02</v>
       </c>
       <c r="B234" t="s">
         <v>910</v>
@@ -9213,8 +9239,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>44168</v>
+      <c r="A235" s="1" t="d">
+        <v>2020-12-03</v>
       </c>
       <c r="B235" t="s">
         <v>914</v>
@@ -9236,8 +9262,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>44169</v>
+      <c r="A236" s="1" t="d">
+        <v>2020-12-04</v>
       </c>
       <c r="B236" t="s">
         <v>918</v>
@@ -9259,8 +9285,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>44172</v>
+      <c r="A237" s="1" t="d">
+        <v>2020-12-07</v>
       </c>
       <c r="B237" t="s">
         <v>921</v>
@@ -9282,8 +9308,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>44173</v>
+      <c r="A238" s="1" t="d">
+        <v>2020-12-08</v>
       </c>
       <c r="B238" t="s">
         <v>925</v>
@@ -9305,8 +9331,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>44174</v>
+      <c r="A239" s="1" t="d">
+        <v>2020-12-09</v>
       </c>
       <c r="B239" t="s">
         <v>929</v>
@@ -9328,8 +9354,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>44175</v>
+      <c r="A240" s="1" t="d">
+        <v>2020-12-10</v>
       </c>
       <c r="B240" t="s">
         <v>933</v>
@@ -9351,8 +9377,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
-        <v>44176</v>
+      <c r="A241" s="1" t="d">
+        <v>2020-12-11</v>
       </c>
       <c r="B241" t="s">
         <v>937</v>
@@ -9374,8 +9400,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>44179</v>
+      <c r="A242" s="1" t="d">
+        <v>2020-12-14</v>
       </c>
       <c r="B242" t="s">
         <v>941</v>
@@ -9397,8 +9423,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>44180</v>
+      <c r="A243" s="1" t="d">
+        <v>2020-12-15</v>
       </c>
       <c r="B243" t="s">
         <v>945</v>
@@ -9420,8 +9446,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>44181</v>
+      <c r="A244" s="1" t="d">
+        <v>2020-12-16</v>
       </c>
       <c r="B244" t="s">
         <v>949</v>
@@ -9443,8 +9469,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>44182</v>
+      <c r="A245" s="1" t="d">
+        <v>2020-12-17</v>
       </c>
       <c r="B245" t="s">
         <v>953</v>
@@ -9466,8 +9492,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>44183</v>
+      <c r="A246" s="1" t="d">
+        <v>2020-12-18</v>
       </c>
       <c r="B246" t="s">
         <v>957</v>
@@ -9489,8 +9515,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>44186</v>
+      <c r="A247" s="1" t="d">
+        <v>2020-12-21</v>
       </c>
       <c r="B247" t="s">
         <v>960</v>
@@ -9512,8 +9538,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>44187</v>
+      <c r="A248" s="1" t="d">
+        <v>2020-12-22</v>
       </c>
       <c r="B248" t="s">
         <v>964</v>
@@ -9535,8 +9561,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>44188</v>
+      <c r="A249" s="1" t="d">
+        <v>2020-12-23</v>
       </c>
       <c r="B249" t="s">
         <v>967</v>
@@ -9558,8 +9584,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>44189</v>
+      <c r="A250" s="1" t="d">
+        <v>2020-12-24</v>
       </c>
       <c r="B250" t="s">
         <v>971</v>
@@ -9581,8 +9607,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>44193</v>
+      <c r="A251" s="1" t="d">
+        <v>2020-12-28</v>
       </c>
       <c r="B251" t="s">
         <v>975</v>
@@ -9604,8 +9630,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>44194</v>
+      <c r="A252" s="1" t="d">
+        <v>2020-12-29</v>
       </c>
       <c r="B252" t="s">
         <v>979</v>
@@ -9627,8 +9653,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
-        <v>44195</v>
+      <c r="A253" s="1" t="d">
+        <v>2020-12-30</v>
       </c>
       <c r="B253" t="s">
         <v>983</v>
@@ -9647,6 +9673,29 @@
       </c>
       <c r="G253">
         <v>42846000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="d">
+        <v>2020-12-31</v>
+      </c>
+      <c r="B254" t="s">
+        <v>987</v>
+      </c>
+      <c r="C254" t="s">
+        <v>988</v>
+      </c>
+      <c r="D254" t="s">
+        <v>989</v>
+      </c>
+      <c r="E254" t="s">
+        <v>990</v>
+      </c>
+      <c r="F254" t="s">
+        <v>990</v>
+      </c>
+      <c r="G254">
+        <v>49649900</v>
       </c>
     </row>
   </sheetData>
